--- a/01_food_delivery_charge_test.xlsx
+++ b/01_food_delivery_charge_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptuampitak\Documents\code-challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3641448D-F673-4D5B-88A7-B43241A66EFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D380C2-9A2D-4E3D-8FA7-F6DAEE932CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{317E4E76-00A5-4E3E-A7C8-A44ED5B3BEE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{317E4E76-00A5-4E3E-A7C8-A44ED5B3BEE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Food DeliverTestCases Technique" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="124">
   <si>
     <t>Meal Boxes</t>
   </si>
@@ -543,6 +543,12 @@
       </rPr>
       <t>(Food Delivery Automate Test Tabs)</t>
     </r>
+  </si>
+  <si>
+    <t>mean mark those case to be in automation test</t>
+  </si>
+  <si>
+    <t>**Noted: Higlight color</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,6 +967,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2ACF2E-FE71-4555-AC5A-688A90092BBF}">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2873,6 +2884,17 @@
       <c r="L69" s="7"/>
       <c r="M69" s="39"/>
       <c r="N69" s="53"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -2977,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E14152-13FD-4EB0-8553-E9D44DF8F5BD}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
